--- a/Dokumentation/Sprint1.xlsx
+++ b/Dokumentation/Sprint1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffils\Desktop\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A92117-D5B8-41CC-AEE5-94383657323E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E1C7B-7356-4D06-9683-F0DEE96D574C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2680" yWindow="2780" windowWidth="28800" windowHeight="15540" xr2:uid="{84F3A917-08BA-4C60-9D42-2ECA44AD0AA8}"/>
+    <workbookView xWindow="3160" yWindow="1960" windowWidth="28840" windowHeight="16670" xr2:uid="{84F3A917-08BA-4C60-9D42-2ECA44AD0AA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -57,76 +57,100 @@
     <t>Notiz</t>
   </si>
   <si>
-    <t>Als Entwickler möchte ich, dass die abgespeicherten Daten einem sinnvollen Schema entsprechen, damit Daten in Zukunft schnell verfügbar und gefunden werden können</t>
-  </si>
-  <si>
-    <t>Ein gut durchdachtes DB-Schema für eine No-SQL Datenbank wie MongoDB muss stehen</t>
-  </si>
-  <si>
     <t>Tasks</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Überlegen welche Daten in der späteren Nutzung anfallen</t>
-  </si>
-  <si>
     <t>offen</t>
   </si>
   <si>
-    <t>Konzeptionelles Schea erstellen</t>
-  </si>
-  <si>
-    <t>ER-Modell erstellen</t>
-  </si>
-  <si>
-    <t>Als User möchte ich, dass ich über mein Handy andere Leute in der Umgebung finden kann, damit ich mit diesen in Kontakt treten kann</t>
-  </si>
-  <si>
-    <t>Eine App muss fertig sein, mit der die grundlegenden Funktionalitäten von AnonyChat bedient werden kann</t>
-  </si>
-  <si>
-    <t>GUI für das Erstellen eines neuen Status</t>
-  </si>
-  <si>
-    <t>GUI für Chats</t>
-  </si>
-  <si>
-    <t>GUI für die Auflistung anderer Status</t>
-  </si>
-  <si>
-    <t>GUI für Einstellungen der App</t>
-  </si>
-  <si>
-    <t>Verbinden der GUIs mit der Datenbank</t>
-  </si>
-  <si>
-    <t>Als User möchte ich meine App-Benachrichtigungen einstellen können, um eine gute UX zu haben</t>
-  </si>
-  <si>
-    <t>Es muss möglich sein, Benachrichtigungen über die App zu empfangen und diese einstellen zu können</t>
-  </si>
-  <si>
-    <t>GUI zum Einstellen der Benachrichtigungen</t>
-  </si>
-  <si>
-    <t>Funktionalität implementieren, Benachrichtigungen zu empfangen</t>
-  </si>
-  <si>
-    <t>Summe</t>
-  </si>
-  <si>
     <t>Aufwandspunkte(Tage)</t>
   </si>
   <si>
     <t>Tatsächlicher Aufwand (Tage)</t>
   </si>
   <si>
-    <t>Author: Felix Filser</t>
-  </si>
-  <si>
-    <t>Wir wollen …</t>
+    <t>Wir wollen die Testumgebung festlegen, aufbauen und testen.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Verantwortlicher</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich jeden Ladungsträger anhand eines QR Codes identifizieren können (Position, Drehung)</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Als Programmierer möchte ich eine Grundstruktur für Menüführung entwickeln</t>
+  </si>
+  <si>
+    <t>Grundstruktur festlegen (Übersicht, Räume ..)</t>
+  </si>
+  <si>
+    <t>Diagramm</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>QR Code erkennen</t>
+  </si>
+  <si>
+    <t>Position ermitteln</t>
+  </si>
+  <si>
+    <t>Drehung erkennen</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>Testraum und System festlegen</t>
+  </si>
+  <si>
+    <t>Kameras testen</t>
+  </si>
+  <si>
+    <t>Größe der QR Codes bla bla</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich mit Hilfe einer Funktion die Wände anhand des importierten Plans zeichnen können (Struktur des Raums festelgen)</t>
+  </si>
+  <si>
+    <t>Kamera anlegen</t>
+  </si>
+  <si>
+    <t>Raum anlegen</t>
+  </si>
+  <si>
+    <t>Positionsangaben</t>
+  </si>
+  <si>
+    <t>Klassendiagramm</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Grobe Übersicht</t>
+  </si>
+  <si>
+    <t>Offene Punkte suchen</t>
   </si>
 </sst>
 </file>
@@ -210,22 +234,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -302,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -317,25 +330,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,344 +677,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9456E5FA-E474-4E27-8A00-B50D842A2FD0}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="D23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" customWidth="1"/>
-    <col min="2" max="2" width="37.1796875" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" customWidth="1"/>
-    <col min="5" max="5" width="39.1796875" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="4" width="37.1796875" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" customWidth="1"/>
+    <col min="7" max="7" width="39.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="2">
+        <v>44130</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="21">
+        <v>24</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="22">
+        <v>14</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="27" t="s">
+      <c r="C25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>43971</v>
-      </c>
-      <c r="D7" s="3">
-        <v>43986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="E26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15">
-        <v>2</v>
-      </c>
-      <c r="E11" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="21">
-        <v>1</v>
-      </c>
-      <c r="E15" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15">
-        <v>10</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="25"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
-      <c r="B17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
-      <c r="B18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2</v>
-      </c>
-      <c r="E18" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="13">
-        <v>3</v>
-      </c>
-      <c r="E19" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="B20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="13">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
-      <c r="B21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="21">
-        <v>3</v>
-      </c>
-      <c r="E22" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15">
-        <v>3</v>
-      </c>
-      <c r="E23" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
-      <c r="B24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
-      <c r="B25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="21">
-        <v>2</v>
-      </c>
-      <c r="E26" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="D29" s="6">
-        <v>15</v>
-      </c>
-      <c r="E29" s="9">
-        <v>15</v>
-      </c>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumentation/Sprint1.xlsx
+++ b/Dokumentation/Sprint1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffils\Documents\GitHub\CarrierTracking\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E234C1DE-E3E4-48E6-B1AA-21FBB98A7FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF38AB0B-6611-49F5-B21A-232AFFE99089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="3240" windowWidth="28800" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -335,15 +335,6 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,6 +372,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,494 +781,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="C3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>44130</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>44138</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>24</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="19" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>2</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="17">
         <v>2</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="22" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="23">
-        <v>1</v>
-      </c>
-      <c r="G15" s="24"/>
+      <c r="F15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
+      <c r="A16" s="10">
         <v>8</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <v>2</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="19" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="17">
         <v>2</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="19" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="21">
+      <c r="F20" s="17">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="19" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="20">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21">
+      <c r="F23" s="17">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="22" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="20">
         <v>0.5</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>14</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="28"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="17">
         <v>2</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="19" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="17">
         <v>3</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="22" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="30">
+      <c r="F29" s="20"/>
+      <c r="G29" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="20">
-        <v>1</v>
-      </c>
-      <c r="G32" s="29">
+      <c r="F32" s="17">
+        <v>1</v>
+      </c>
+      <c r="G32" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="29"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="17">
         <v>2</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="20">
-        <v>1</v>
-      </c>
-      <c r="G37" s="29">
+      <c r="F37" s="17">
+        <v>1</v>
+      </c>
+      <c r="G37" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="20">
-        <v>1</v>
-      </c>
-      <c r="G38" s="29">
+      <c r="F38" s="17">
+        <v>1</v>
+      </c>
+      <c r="G38" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="20">
-        <v>1</v>
-      </c>
-      <c r="G39" s="29">
+      <c r="F39" s="17">
+        <v>1</v>
+      </c>
+      <c r="G39" s="26">
         <v>1</v>
       </c>
     </row>

--- a/Dokumentation/Sprint1.xlsx
+++ b/Dokumentation/Sprint1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="61">
   <si>
     <t xml:space="preserve">Sprint1</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t xml:space="preserve">Start 4.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weitere Tabs anlegen/flexibles Grid anlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offen → done</t>
   </si>
   <si>
     <t xml:space="preserve">GameObject im Bildausschnitt platzieren
@@ -191,7 +197,13 @@
     <t xml:space="preserve">Laden und Speicher der vorhandenen GO in JSON</t>
   </si>
   <si>
+    <t xml:space="preserve">1.5 bis 11.11.2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">nächstes Meeting am 11.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nächstes Meeting am 16.11.2020 15:00 Uhr</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint</t>
@@ -584,18 +596,18 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.45"/>
   </cols>
   <sheetData>
@@ -1232,13 +1244,15 @@
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="19" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
+      <c r="G56" s="21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15"/>
@@ -1284,7 +1298,7 @@
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>18</v>
@@ -1299,13 +1313,15 @@
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E61" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="F61" s="23"/>
-      <c r="G61" s="24"/>
+      <c r="G61" s="24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12"/>
@@ -1338,7 +1354,7 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>18</v>
@@ -1353,7 +1369,7 @@
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>18</v>
@@ -1375,7 +1391,7 @@
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -1396,13 +1412,15 @@
         <v>26</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="20"/>
-      <c r="G69" s="28"/>
+      <c r="G69" s="28" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="19"/>
@@ -1410,10 +1428,376 @@
       <c r="F70" s="20"/>
       <c r="G70" s="28"/>
     </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>55</v>
-      </c>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="6"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="15"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="18"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="15"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="20"/>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="15"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="20"/>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="15"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="25"/>
+      <c r="G91" s="18"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="15"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="20"/>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="15"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="20"/>
+      <c r="G93" s="21"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="15"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="20"/>
+      <c r="G94" s="21"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="15"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="25"/>
+      <c r="G96" s="18"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="15"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="20"/>
+      <c r="G97" s="21"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D98" s="19"/>
+      <c r="E98" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="20"/>
+      <c r="G98" s="28"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="26"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="23"/>
+      <c r="G99" s="24"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="20"/>
+      <c r="G102" s="28"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="20"/>
+      <c r="G103" s="28"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="23"/>
+      <c r="G104" s="29"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107" s="19"/>
+      <c r="E107" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="20"/>
+      <c r="G107" s="28"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108" s="19"/>
+      <c r="E108" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="20"/>
+      <c r="G108" s="28"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D109" s="19"/>
+      <c r="E109" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="20"/>
+      <c r="G109" s="28"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D110" s="19"/>
+      <c r="E110" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="20"/>
+      <c r="G110" s="28"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="28"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="28"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="28"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="28"/>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1423,11 +1807,15 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C83:H83"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1447,23 +1835,23 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>

--- a/Dokumentation/Sprint1.xlsx
+++ b/Dokumentation/Sprint1.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FeFi\Documents\GitHub\CarrierTracking\Dokumentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56972EF6-08A2-416C-A0BA-FF638D2D832B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="3120" yWindow="1880" windowWidth="29090" windowHeight="17270" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SprintBacklog" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Kommentare" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Vorlage" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="SprintBacklog" sheetId="1" r:id="rId1"/>
+    <sheet name="Kommentare" sheetId="2" r:id="rId2"/>
+    <sheet name="Vorlage" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,253 +27,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="77">
-  <si>
-    <t xml:space="preserve">Sprint1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint Ziel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wir wollen die Testumgebung festlegen, aufbauen und testen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint Backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verantwortlicher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Übernahmekriterium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufwandspunkte(Stunden)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tatsächlicher Aufwand (Stunden)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Als Programmierer möchte ich eine Grundstruktur für Menüführung entwickeln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grundstruktur festlegen (Übersicht, Räume ..)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weitere Tabs anlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Als Benutzer möchte ich jeden Ladungsträger anhand eines QR Codes identifizieren können (Position, Drehung)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QR Code erkennen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position ermitteln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drehung erkennen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testraum und System festlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kameras testen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="95">
+  <si>
+    <t>Sprint1</t>
+  </si>
+  <si>
+    <t>Sprint Ziel</t>
+  </si>
+  <si>
+    <t>Wir wollen die Testumgebung festlegen, aufbauen und testen.</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Ende</t>
+  </si>
+  <si>
+    <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Verantwortlicher</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Übernahmekriterium</t>
+  </si>
+  <si>
+    <t>Notiz</t>
+  </si>
+  <si>
+    <t>Aufwandspunkte(Stunden)</t>
+  </si>
+  <si>
+    <t>Tatsächlicher Aufwand (Stunden)</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>Als Programmierer möchte ich eine Grundstruktur für Menüführung entwickeln</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Grundstruktur festlegen (Übersicht, Räume ..)</t>
+  </si>
+  <si>
+    <t>offen</t>
+  </si>
+  <si>
+    <t>Weitere Tabs anlegen</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich jeden Ladungsträger anhand eines QR Codes identifizieren können (Position, Drehung)</t>
+  </si>
+  <si>
+    <t>QR Code erkennen</t>
+  </si>
+  <si>
+    <t>Position ermitteln</t>
+  </si>
+  <si>
+    <t>Drehung erkennen</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>Testraum und System festlegen</t>
+  </si>
+  <si>
+    <t>Kameras testen</t>
   </si>
   <si>
     <t xml:space="preserve">Notwendige Größe der QR Codes ermitteln </t>
   </si>
   <si>
-    <t xml:space="preserve">NB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Als Benutzer möchte ich mit Hilfe einer Funktion die Wände anhand des importierten Plans zeichnen können (Struktur des Raums festelgen)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamera anlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raum anlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positionsangaben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klassendiagramm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grobe Übersicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF/SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GITHUB/ORGANISATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git Repo anlegen,pflegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint Backlogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organisatorisches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint Ziel:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamera anlegen und löschen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamera rotieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sinnvolle Anordnung der GameObjects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugfixing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flexible Grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GameObject im Bildausschnitt platzieren
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich mit Hilfe einer Funktion die Wände anhand des importierten Plans zeichnen können (Struktur des Raums festelgen)</t>
+  </si>
+  <si>
+    <t>Kamera anlegen</t>
+  </si>
+  <si>
+    <t>Raum anlegen</t>
+  </si>
+  <si>
+    <t>Positionsangaben</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Klassendiagramm</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Grobe Übersicht</t>
+  </si>
+  <si>
+    <t>FF/SH</t>
+  </si>
+  <si>
+    <t>GITHUB/ORGANISATION</t>
+  </si>
+  <si>
+    <t>Git Repo anlegen,pflegen</t>
+  </si>
+  <si>
+    <t>Sprint Backlogs</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>organisatorisches</t>
+  </si>
+  <si>
+    <t>Sprint Ziel:</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Kamera anlegen und löschen</t>
+  </si>
+  <si>
+    <t>Kamera rotieren</t>
+  </si>
+  <si>
+    <t>sinnvolle Anordnung der GameObjects</t>
+  </si>
+  <si>
+    <t>Bugfixing</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Flexible Grid</t>
+  </si>
+  <si>
+    <t>GameObject im Bildausschnitt platzieren
 Skript schreiben: Er bekommt ein GO (Ladungsträger) zum platzieren,
  GO (Bildausschnitt) zu dem relativ positioniert werden soll, und
  2 Koordinaten (Ladungsträger x/y Koordinaten)</t>
   </si>
   <si>
-    <t xml:space="preserve">Rahmen um x/y Koordinate</t>
+    <t>Rahmen um x/y Koordinate</t>
   </si>
   <si>
     <t xml:space="preserve">Drehung erkennen </t>
   </si>
   <si>
-    <t xml:space="preserve">Codeimplementation von eigenem Code in Unity/git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laden und Speicher der vorhandenen GO in JSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5 bis 11.11.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH/FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokumentation + Planung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nächstes Meeting am 16.11.2020 15:00 Uhr --&gt; Große Probleme diese Woche: github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI mit Funktionalitäten belegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Station anlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QR-Code einlesen</t>
+    <t>Codeimplementation von eigenem Code in Unity/git</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Laden und Speicher der vorhandenen GO in JSON</t>
+  </si>
+  <si>
+    <t>1.5 bis 11.11.2020</t>
+  </si>
+  <si>
+    <t>SH/FF</t>
+  </si>
+  <si>
+    <t>GitHub Repository</t>
+  </si>
+  <si>
+    <t>Dokumentation + Planung</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>UI mit Funktionalitäten belegen</t>
+  </si>
+  <si>
+    <t>Station anlegen</t>
+  </si>
+  <si>
+    <t>QR-Code einlesen</t>
   </si>
   <si>
     <t xml:space="preserve">Test-Simulation </t>
   </si>
   <si>
-    <t xml:space="preserve">Viktor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mit Code von fabi in Szene von Niko ausführen,
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>mit Code von fabi in Szene von Niko ausführen,
  wenn Kameraflächen vorhanden Abfrage starten 
 Und x/y Koordinaten aktualisieren</t>
   </si>
   <si>
-    <t xml:space="preserve">Evtl. Video aufzeichnen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viktor Rückmeldung über Meeting am Montag 30.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommentare // Feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint3</t>
+    <t>Kommentare // Feedback</t>
+  </si>
+  <si>
+    <t>Sprint2</t>
+  </si>
+  <si>
+    <t>Sprint3</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>GUI Struktur festlegen</t>
+  </si>
+  <si>
+    <t>QR Codes</t>
+  </si>
+  <si>
+    <t>Erstellung QR Codes</t>
+  </si>
+  <si>
+    <t>JSON in Unity implementieren</t>
+  </si>
+  <si>
+    <t>FF/NB/VD/FB</t>
+  </si>
+  <si>
+    <t>Anzeigen QR Code auf Plan</t>
+  </si>
+  <si>
+    <t>Inhalt in Theorie darstellen</t>
+  </si>
+  <si>
+    <t>JSON in Unity</t>
+  </si>
+  <si>
+    <t>Stationen und Ladungsträger teilen (2 JSON-Array)</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Stationenhandler</t>
+  </si>
+  <si>
+    <t>Station erstellen</t>
+  </si>
+  <si>
+    <t>verschiedene Ansichten</t>
+  </si>
+  <si>
+    <t>Attribute festlegen</t>
+  </si>
+  <si>
+    <t>VD / FF</t>
+  </si>
+  <si>
+    <t>GUI Umsetzung in Unity</t>
+  </si>
+  <si>
+    <t>GUI in Unity implementieren</t>
+  </si>
+  <si>
+    <t>Bild einlesen und löschen (automatisiert) // Skript</t>
+  </si>
+  <si>
+    <t>Mehrere QR Codes einlesen und anzeigen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-407]DD/MM/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-407]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -277,22 +335,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -300,7 +343,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -308,7 +351,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -361,230 +404,147 @@
     </fill>
   </fills>
   <borders count="8">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -643,89 +603,397 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.42"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="4" width="61.453125" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" customWidth="1"/>
+    <col min="7" max="7" width="39.08984375" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="5" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="6" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="7">
         <v>44130</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="8">
         <v>44138</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -748,8 +1016,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
         <v>24</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -763,7 +1031,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -776,7 +1044,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -784,16 +1052,16 @@
         <v>17</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" s="20">
         <v>2</v>
       </c>
-      <c r="G13" s="21" t="n">
+      <c r="G13" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -803,14 +1071,14 @@
       <c r="E14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="20" t="n">
+      <c r="F14" s="20">
         <v>2</v>
       </c>
-      <c r="G14" s="21" t="n">
+      <c r="G14" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -820,13 +1088,13 @@
       <c r="E15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="23" t="n">
+      <c r="F15" s="23">
         <v>1</v>
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+    <row r="16" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
         <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -840,7 +1108,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -853,7 +1121,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -863,14 +1131,14 @@
       <c r="E18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="20" t="n">
+      <c r="F18" s="20">
         <v>2</v>
       </c>
-      <c r="G18" s="21" t="n">
+      <c r="G18" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -880,14 +1148,14 @@
       <c r="E19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="20" t="n">
+      <c r="F19" s="20">
         <v>2</v>
       </c>
-      <c r="G19" s="21" t="n">
+      <c r="G19" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -897,14 +1165,14 @@
       <c r="E20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="20" t="n">
+      <c r="F20" s="20">
         <v>1</v>
       </c>
-      <c r="G20" s="21" t="n">
+      <c r="G20" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
         <v>27</v>
@@ -917,7 +1185,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -930,7 +1198,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -940,14 +1208,14 @@
       <c r="E23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="20" t="n">
+      <c r="F23" s="20">
         <v>1</v>
       </c>
-      <c r="G23" s="21" t="n">
+      <c r="G23" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -957,15 +1225,15 @@
       <c r="E24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>0.5</v>
       </c>
-      <c r="G24" s="24" t="n">
+      <c r="G24" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+    <row r="25" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
         <v>14</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -979,7 +1247,7 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -992,7 +1260,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1000,16 +1268,16 @@
         <v>33</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" s="20">
         <v>2</v>
       </c>
-      <c r="G27" s="28" t="n">
+      <c r="G27" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1019,14 +1287,14 @@
       <c r="E28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="20" t="n">
+      <c r="F28" s="20">
         <v>3</v>
       </c>
-      <c r="G28" s="28" t="n">
+      <c r="G28" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -1034,14 +1302,14 @@
         <v>35</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F29" s="23"/>
-      <c r="G29" s="29" t="n">
+      <c r="G29" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
         <v>36</v>
@@ -1054,7 +1322,7 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D31" s="17" t="s">
         <v>38</v>
       </c>
@@ -1062,21 +1330,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="20" t="n">
+      <c r="F32" s="20">
         <v>1</v>
       </c>
-      <c r="G32" s="28" t="n">
+      <c r="G32" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
         <v>40</v>
@@ -1089,7 +1357,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D34" s="17" t="s">
         <v>38</v>
       </c>
@@ -1097,87 +1365,87 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D35" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F35" s="20">
         <v>2</v>
       </c>
-      <c r="G35" s="28" t="n">
+      <c r="G35" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D36" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" s="20">
         <v>1</v>
       </c>
-      <c r="G36" s="28" t="n">
+      <c r="G36" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D37" s="19" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F37" s="20">
         <v>1</v>
       </c>
-      <c r="G37" s="28" t="n">
+      <c r="G37" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D38" s="19" t="s">
         <v>45</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F38" s="20">
         <v>1</v>
       </c>
-      <c r="G38" s="28" t="n">
+      <c r="G38" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="6" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="7">
         <v>44139</v>
       </c>
-      <c r="F42" s="7" t="n">
+      <c r="F42" s="8">
         <v>44152</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="13"/>
       <c r="B44" s="13" t="s">
         <v>31</v>
@@ -1188,7 +1456,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -1201,7 +1469,7 @@
       <c r="F45" s="16"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -1214,7 +1482,7 @@
       <c r="F46" s="20"/>
       <c r="G46" s="21"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -1227,7 +1495,7 @@
       <c r="F47" s="20"/>
       <c r="G47" s="21"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -1240,7 +1508,7 @@
       <c r="F48" s="23"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -1251,7 +1519,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="B50" s="13" t="s">
         <v>13</v>
@@ -1264,7 +1532,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -1277,7 +1545,7 @@
       <c r="F51" s="25"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -1285,12 +1553,12 @@
         <v>17</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="21"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="15"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -1303,7 +1571,7 @@
       <c r="F53" s="20"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -1314,7 +1582,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -1327,7 +1595,7 @@
       <c r="F55" s="25"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -1340,8 +1608,8 @@
       <c r="F56" s="20"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="26">
         <v>2</v>
       </c>
       <c r="B57" s="27"/>
@@ -1353,11 +1621,11 @@
         <v>20</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="G57" s="24" t="n">
+      <c r="G57" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="12"/>
       <c r="B58" s="12" t="s">
         <v>22</v>
@@ -1368,7 +1636,7 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -1381,7 +1649,7 @@
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -1394,8 +1662,8 @@
       <c r="F60" s="20"/>
       <c r="G60" s="28"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="n">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="16">
         <v>8</v>
       </c>
       <c r="B61" s="16"/>
@@ -1409,7 +1677,7 @@
       <c r="F61" s="20"/>
       <c r="G61" s="28"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
       <c r="B62" s="12" t="s">
         <v>58</v>
@@ -1420,7 +1688,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D63" s="17" t="s">
         <v>38</v>
       </c>
@@ -1428,8 +1696,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>26</v>
       </c>
       <c r="D64" s="19" t="s">
@@ -1443,7 +1711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D65" s="19" t="s">
         <v>57</v>
       </c>
@@ -1453,7 +1721,7 @@
       <c r="F65" s="20"/>
       <c r="G65" s="28"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
         <v>61</v>
@@ -1464,7 +1732,7 @@
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D67" s="17" t="s">
         <v>38</v>
       </c>
@@ -1472,7 +1740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D68" s="19" t="s">
         <v>62</v>
       </c>
@@ -1484,7 +1752,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D69" s="19" t="s">
         <v>63</v>
       </c>
@@ -1494,69 +1762,64 @@
       <c r="F69" s="20"/>
       <c r="G69" s="28"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D70" s="31"/>
       <c r="E70" s="31"/>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="3" t="s">
+    <row r="73" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="5" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C78" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="6" t="n">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C79" s="7">
         <v>44153</v>
       </c>
-      <c r="F79" s="7" t="n">
+      <c r="F79" s="8">
         <v>44166</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="8" t="s">
+    <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>6</v>
       </c>
@@ -1577,20 +1840,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="11"/>
       <c r="B83" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="14"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -1603,12 +1866,12 @@
       <c r="F84" s="16"/>
       <c r="G84" s="18"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>18</v>
@@ -1616,12 +1879,12 @@
       <c r="F85" s="20"/>
       <c r="G85" s="21"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>18</v>
@@ -1629,12 +1892,12 @@
       <c r="F86" s="20"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>18</v>
@@ -1642,18 +1905,20 @@
       <c r="F87" s="23"/>
       <c r="G87" s="24"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="13"/>
       <c r="B88" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
       <c r="G88" s="14"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="15"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -1666,7 +1931,7 @@
       <c r="F89" s="25"/>
       <c r="G89" s="18"/>
     </row>
-    <row r="90" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="15"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -1679,7 +1944,7 @@
       <c r="F90" s="20"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -1688,7 +1953,7 @@
       <c r="F91" s="20"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -1697,7 +1962,7 @@
       <c r="F92" s="20"/>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="13"/>
       <c r="B93" s="13" t="s">
         <v>58</v>
@@ -1708,7 +1973,7 @@
       <c r="F93" s="13"/>
       <c r="G93" s="14"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -1721,7 +1986,7 @@
       <c r="F94" s="25"/>
       <c r="G94" s="18"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -1734,13 +1999,13 @@
       <c r="F95" s="20"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="20"/>
       <c r="G96" s="28"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="26"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -1749,7 +2014,7 @@
       <c r="F97" s="23"/>
       <c r="G97" s="24"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="12"/>
       <c r="B98" s="12" t="s">
         <v>22</v>
@@ -1760,7 +2025,7 @@
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -1773,7 +2038,7 @@
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -1786,7 +2051,7 @@
       <c r="F100" s="20"/>
       <c r="G100" s="28"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -1795,7 +2060,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="28"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="27"/>
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
@@ -1804,7 +2069,7 @@
       <c r="F102" s="23"/>
       <c r="G102" s="29"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="12"/>
       <c r="B103" s="12" t="s">
         <v>31</v>
@@ -1815,7 +2080,7 @@
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D104" s="17" t="s">
         <v>38</v>
       </c>
@@ -1823,32 +2088,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D105" s="19"/>
-      <c r="E105" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="E105" s="19"/>
       <c r="F105" s="20"/>
       <c r="G105" s="28"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D106" s="19"/>
-      <c r="E106" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="E106" s="19"/>
       <c r="F106" s="20"/>
       <c r="G106" s="28"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" s="20"/>
       <c r="G107" s="28"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="12"/>
       <c r="B108" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
@@ -1856,7 +2117,7 @@
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D109" s="17" t="s">
         <v>38</v>
       </c>
@@ -1864,9 +2125,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D110" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>18</v>
@@ -1874,169 +2135,540 @@
       <c r="F110" s="20"/>
       <c r="G110" s="28"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D111" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111" s="20"/>
-      <c r="G111" s="28"/>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C111" s="33"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D112" s="31"/>
       <c r="E112" s="31"/>
       <c r="F112" s="32"/>
       <c r="G112" s="32"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
+    <row r="113" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C118" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C119" s="7">
+        <v>44167</v>
+      </c>
+      <c r="F119" s="8">
+        <v>44181</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="14"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="15"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="32"/>
+      <c r="G124" s="18"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="15"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="20"/>
+      <c r="G125" s="21"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="15"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" s="20"/>
+      <c r="G126" s="21"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="15"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="24"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="13"/>
+      <c r="B128" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="14"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="15"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="25"/>
+      <c r="G129" s="18"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="15"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="20"/>
+      <c r="G130" s="21"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="15"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="21"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="15"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="21"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="13"/>
+      <c r="B133" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="14"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="15"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="25"/>
+      <c r="G134" s="18"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="15"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" s="20"/>
+      <c r="G135" s="21"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D136" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136" s="20"/>
+      <c r="G136" s="28"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="26"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="24"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="20"/>
+      <c r="G140" s="28"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="32"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="20"/>
+      <c r="G141" s="28"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="27"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" s="23"/>
+      <c r="G142" s="29"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D144" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D145" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" s="20"/>
+      <c r="G145" s="28"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D146" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="20"/>
+      <c r="G146" s="28"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D147" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="20"/>
+      <c r="G147" s="28"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="12"/>
+      <c r="B148" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D149" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E149" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D150" s="30"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="28"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="C115:F115"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C73:F73"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="C81:H81"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>76</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.42"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="4" width="42.7265625" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" customWidth="1"/>
+    <col min="7" max="7" width="39.08984375" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3" t="s">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="5" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="6"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="8" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -2057,7 +2689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -2066,7 +2698,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -2079,7 +2711,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -2090,7 +2722,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2101,7 +2733,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -2112,7 +2744,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -2121,7 +2753,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2134,7 +2766,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2145,7 +2777,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2156,7 +2788,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2167,7 +2799,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2176,7 +2808,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -2189,7 +2821,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2200,7 +2832,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="19"/>
       <c r="E24" s="19" t="s">
         <v>18</v>
@@ -2208,7 +2840,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -2219,7 +2851,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2228,7 +2860,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -2241,7 +2873,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -2252,7 +2884,7 @@
       <c r="F28" s="20"/>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -2263,7 +2895,7 @@
       <c r="F29" s="20"/>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -2274,7 +2906,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2283,7 +2915,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="17" t="s">
         <v>38</v>
       </c>
@@ -2291,7 +2923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D33" s="19"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
@@ -2299,7 +2931,7 @@
       <c r="F33" s="20"/>
       <c r="G33" s="28"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D34" s="19"/>
       <c r="E34" s="19" t="s">
         <v>18</v>
@@ -2307,7 +2939,7 @@
       <c r="F34" s="20"/>
       <c r="G34" s="28"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D35" s="19"/>
       <c r="E35" s="19" t="s">
         <v>18</v>
@@ -2315,37 +2947,37 @@
       <c r="F35" s="20"/>
       <c r="G35" s="28"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
     </row>
-    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" ht="28.4" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:F1"/>
@@ -2353,10 +2985,9 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:H9"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>

--- a/Dokumentation/Sprint1.xlsx
+++ b/Dokumentation/Sprint1.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FeFi\Documents\GitHub\CarrierTracking\Dokumentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56972EF6-08A2-416C-A0BA-FF638D2D832B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1880" windowWidth="29090" windowHeight="17270" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SprintBacklog" sheetId="1" r:id="rId1"/>
-    <sheet name="Kommentare" sheetId="2" r:id="rId2"/>
-    <sheet name="Vorlage" sheetId="3" r:id="rId3"/>
+    <sheet name="SprintBacklog" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Kommentare" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Vorlage" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,306 +22,316 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="95">
-  <si>
-    <t>Sprint1</t>
-  </si>
-  <si>
-    <t>Sprint Ziel</t>
-  </si>
-  <si>
-    <t>Wir wollen die Testumgebung festlegen, aufbauen und testen.</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Ende</t>
-  </si>
-  <si>
-    <t>Sprint Backlog</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Verantwortlicher</t>
-  </si>
-  <si>
-    <t>User Story</t>
-  </si>
-  <si>
-    <t>Übernahmekriterium</t>
-  </si>
-  <si>
-    <t>Notiz</t>
-  </si>
-  <si>
-    <t>Aufwandspunkte(Stunden)</t>
-  </si>
-  <si>
-    <t>Tatsächlicher Aufwand (Stunden)</t>
-  </si>
-  <si>
-    <t>VD</t>
-  </si>
-  <si>
-    <t>Als Programmierer möchte ich eine Grundstruktur für Menüführung entwickeln</t>
-  </si>
-  <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Grundstruktur festlegen (Übersicht, Räume ..)</t>
-  </si>
-  <si>
-    <t>offen</t>
-  </si>
-  <si>
-    <t>Weitere Tabs anlegen</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>Als Benutzer möchte ich jeden Ladungsträger anhand eines QR Codes identifizieren können (Position, Drehung)</t>
-  </si>
-  <si>
-    <t>QR Code erkennen</t>
-  </si>
-  <si>
-    <t>Position ermitteln</t>
-  </si>
-  <si>
-    <t>Drehung erkennen</t>
-  </si>
-  <si>
-    <t>alle</t>
-  </si>
-  <si>
-    <t>Testraum und System festlegen</t>
-  </si>
-  <si>
-    <t>Kameras testen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="98">
+  <si>
+    <t xml:space="preserve">Sprint1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint Ziel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir wollen die Testumgebung festlegen, aufbauen und testen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint Backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verantwortlicher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Übernahmekriterium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufwandspunkte(Stunden)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatsächlicher Aufwand (Stunden)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Programmierer möchte ich eine Grundstruktur für Menüführung entwickeln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundstruktur festlegen (Übersicht, Räume ..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weitere Tabs anlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Benutzer möchte ich jeden Ladungsträger anhand eines QR Codes identifizieren können (Position, Drehung)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QR Code erkennen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position ermitteln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drehung erkennen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testraum und System festlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kameras testen</t>
   </si>
   <si>
     <t xml:space="preserve">Notwendige Größe der QR Codes ermitteln </t>
   </si>
   <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>Als Benutzer möchte ich mit Hilfe einer Funktion die Wände anhand des importierten Plans zeichnen können (Struktur des Raums festelgen)</t>
-  </si>
-  <si>
-    <t>Kamera anlegen</t>
-  </si>
-  <si>
-    <t>Raum anlegen</t>
-  </si>
-  <si>
-    <t>Positionsangaben</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Klassendiagramm</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Grobe Übersicht</t>
-  </si>
-  <si>
-    <t>FF/SH</t>
-  </si>
-  <si>
-    <t>GITHUB/ORGANISATION</t>
-  </si>
-  <si>
-    <t>Git Repo anlegen,pflegen</t>
-  </si>
-  <si>
-    <t>Sprint Backlogs</t>
-  </si>
-  <si>
-    <t>Product Backlog</t>
-  </si>
-  <si>
-    <t>organisatorisches</t>
-  </si>
-  <si>
-    <t>Sprint Ziel:</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Kamera anlegen und löschen</t>
-  </si>
-  <si>
-    <t>Kamera rotieren</t>
-  </si>
-  <si>
-    <t>sinnvolle Anordnung der GameObjects</t>
-  </si>
-  <si>
-    <t>Bugfixing</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Flexible Grid</t>
-  </si>
-  <si>
-    <t>GameObject im Bildausschnitt platzieren
+    <t xml:space="preserve">NB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Benutzer möchte ich mit Hilfe einer Funktion die Wände anhand des importierten Plans zeichnen können (Struktur des Raums festelgen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamera anlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raum anlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positionsangaben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klassendiagramm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grobe Übersicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF/SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GITHUB/ORGANISATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git Repo anlegen,pflegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint Backlogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organisatorisches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint Ziel:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamera anlegen und löschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamera rotieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sinnvolle Anordnung der GameObjects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugfixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GameObject im Bildausschnitt platzieren
 Skript schreiben: Er bekommt ein GO (Ladungsträger) zum platzieren,
  GO (Bildausschnitt) zu dem relativ positioniert werden soll, und
  2 Koordinaten (Ladungsträger x/y Koordinaten)</t>
   </si>
   <si>
-    <t>Rahmen um x/y Koordinate</t>
+    <t xml:space="preserve">Rahmen um x/y Koordinate</t>
   </si>
   <si>
     <t xml:space="preserve">Drehung erkennen </t>
   </si>
   <si>
-    <t>Codeimplementation von eigenem Code in Unity/git</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>Laden und Speicher der vorhandenen GO in JSON</t>
-  </si>
-  <si>
-    <t>1.5 bis 11.11.2020</t>
-  </si>
-  <si>
-    <t>SH/FF</t>
-  </si>
-  <si>
-    <t>GitHub Repository</t>
-  </si>
-  <si>
-    <t>Dokumentation + Planung</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>UI mit Funktionalitäten belegen</t>
-  </si>
-  <si>
-    <t>Station anlegen</t>
-  </si>
-  <si>
-    <t>QR-Code einlesen</t>
+    <t xml:space="preserve">Codeimplementation von eigenem Code in Unity/git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laden und Speicher der vorhandenen GO in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 bis 11.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH/FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub Repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation + Planung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI mit Funktionalitäten belegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station anlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QR-Code einlesen</t>
   </si>
   <si>
     <t xml:space="preserve">Test-Simulation </t>
   </si>
   <si>
-    <t>Viktor</t>
-  </si>
-  <si>
-    <t>mit Code von fabi in Szene von Niko ausführen,
+    <t xml:space="preserve">FF/NB/VD/FB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzeigen QR Code auf Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mit Code von fabi in Szene von Niko ausführen,
  wenn Kameraflächen vorhanden Abfrage starten 
 Und x/y Koordinaten aktualisieren</t>
   </si>
   <si>
-    <t>Kommentare // Feedback</t>
-  </si>
-  <si>
-    <t>Sprint2</t>
-  </si>
-  <si>
-    <t>Sprint3</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>GUI Struktur festlegen</t>
-  </si>
-  <si>
-    <t>QR Codes</t>
-  </si>
-  <si>
-    <t>Erstellung QR Codes</t>
-  </si>
-  <si>
-    <t>JSON in Unity implementieren</t>
-  </si>
-  <si>
-    <t>FF/NB/VD/FB</t>
-  </si>
-  <si>
-    <t>Anzeigen QR Code auf Plan</t>
-  </si>
-  <si>
-    <t>Inhalt in Theorie darstellen</t>
-  </si>
-  <si>
-    <t>JSON in Unity</t>
-  </si>
-  <si>
-    <t>Stationen und Ladungsträger teilen (2 JSON-Array)</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Stationenhandler</t>
-  </si>
-  <si>
-    <t>Station erstellen</t>
-  </si>
-  <si>
-    <t>verschiedene Ansichten</t>
-  </si>
-  <si>
-    <t>Attribute festlegen</t>
-  </si>
-  <si>
-    <t>VD / FF</t>
-  </si>
-  <si>
-    <t>GUI Umsetzung in Unity</t>
-  </si>
-  <si>
-    <t>GUI in Unity implementieren</t>
-  </si>
-  <si>
-    <t>Bild einlesen und löschen (automatisiert) // Skript</t>
-  </si>
-  <si>
-    <t>Mehrere QR Codes einlesen und anzeigen</t>
+    <t xml:space="preserve">Sprint 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI Struktur festlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhalt in Theorie darstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QR Codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellung QR Codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON in Unity implementieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON in Unity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stationen und Ladungsträger teilen (2 JSON-Array)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stationenhandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verschiedene Ansichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute festlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VD / FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI Umsetzung in Unity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI in Unity implementieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zu Basti/Moritz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bild einlesen und löschen (automatisiert) // Skript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done/löschen macht noch Probleme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehrere QR Codes einlesen und anzeigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nächstes Meeting Mo 14.12 15:30 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommentare // Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-407]dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$-407]DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -335,7 +340,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -343,7 +363,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -351,7 +371,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -404,147 +424,238 @@
     </fill>
   </fills>
   <borders count="8">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="35">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -603,397 +714,89 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C154" activeCellId="0" sqref="C154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" customWidth="1"/>
-    <col min="4" max="4" width="61.453125" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" customWidth="1"/>
-    <col min="6" max="6" width="26.26953125" customWidth="1"/>
-    <col min="7" max="7" width="39.08984375" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C3" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D4" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C6" s="6" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C7" s="7">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="6" t="n">
         <v>44130</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7" t="n">
         <v>44138</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="1" t="s">
+    <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +819,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+    <row r="11" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="n">
         <v>24</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1031,7 +834,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1044,7 +847,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1052,16 +855,16 @@
         <v>17</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="20">
+        <v>18</v>
+      </c>
+      <c r="F13" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="21" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1069,32 +872,32 @@
         <v>19</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="20">
+        <v>18</v>
+      </c>
+      <c r="F14" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="21" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="23">
+        <v>21</v>
+      </c>
+      <c r="F15" s="23" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
+    <row r="16" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="n">
         <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -1108,7 +911,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1121,7 +924,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -1129,16 +932,16 @@
         <v>24</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="20">
+        <v>18</v>
+      </c>
+      <c r="F18" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="21" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1146,16 +949,16 @@
         <v>25</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="20">
+        <v>18</v>
+      </c>
+      <c r="F19" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="21" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1163,16 +966,16 @@
         <v>26</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="20">
+        <v>21</v>
+      </c>
+      <c r="F20" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="21" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
         <v>27</v>
@@ -1185,7 +988,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -1198,7 +1001,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -1206,16 +1009,16 @@
         <v>29</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="20">
+        <v>18</v>
+      </c>
+      <c r="F23" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="21" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -1223,17 +1026,17 @@
         <v>30</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="23">
+        <v>18</v>
+      </c>
+      <c r="F24" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="24" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
+    <row r="25" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="n">
         <v>14</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -1247,7 +1050,7 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -1260,7 +1063,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1268,16 +1071,16 @@
         <v>33</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="20">
+        <v>18</v>
+      </c>
+      <c r="F27" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="28" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1285,16 +1088,16 @@
         <v>34</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="20">
+        <v>18</v>
+      </c>
+      <c r="F28" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="28" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -1302,14 +1105,14 @@
         <v>35</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F29" s="23"/>
-      <c r="G29" s="29">
+      <c r="G29" s="29" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
         <v>36</v>
@@ -1322,7 +1125,7 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="17" t="s">
         <v>38</v>
       </c>
@@ -1330,21 +1133,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="20">
+        <v>21</v>
+      </c>
+      <c r="F32" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="28" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
         <v>40</v>
@@ -1357,7 +1160,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="17" t="s">
         <v>38</v>
       </c>
@@ -1365,87 +1168,87 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="20">
+        <v>18</v>
+      </c>
+      <c r="F35" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="28" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="20">
+        <v>18</v>
+      </c>
+      <c r="F36" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="28" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="19" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="20">
+        <v>18</v>
+      </c>
+      <c r="F37" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="28" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="19" t="s">
         <v>45</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="20">
+        <v>18</v>
+      </c>
+      <c r="F38" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="28" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C40" t="s">
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C42" s="7">
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="6" t="n">
         <v>44139</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7" t="n">
         <v>44152</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13"/>
       <c r="B44" s="13" t="s">
         <v>31</v>
@@ -1456,7 +1259,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -1469,7 +1272,7 @@
       <c r="F45" s="16"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -1477,12 +1280,12 @@
         <v>48</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="21"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -1490,12 +1293,12 @@
         <v>49</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="21"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -1503,12 +1306,12 @@
         <v>50</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -1519,7 +1322,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13"/>
       <c r="B50" s="13" t="s">
         <v>13</v>
@@ -1532,7 +1335,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -1545,7 +1348,7 @@
       <c r="F51" s="25"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -1553,12 +1356,12 @@
         <v>17</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="21"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -1566,12 +1369,12 @@
         <v>53</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -1582,7 +1385,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -1595,7 +1398,7 @@
       <c r="F55" s="25"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -1603,13 +1406,13 @@
         <v>54</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="26">
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="26" t="n">
         <v>2</v>
       </c>
       <c r="B57" s="27"/>
@@ -1618,14 +1421,14 @@
         <v>55</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="G57" s="24">
+      <c r="G57" s="24" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12"/>
       <c r="B58" s="12" t="s">
         <v>22</v>
@@ -1636,7 +1439,7 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -1649,7 +1452,7 @@
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -1657,13 +1460,13 @@
         <v>56</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="28"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="16">
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="n">
         <v>8</v>
       </c>
       <c r="B61" s="16"/>
@@ -1672,12 +1475,12 @@
         <v>57</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="28"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12"/>
       <c r="B62" s="12" t="s">
         <v>58</v>
@@ -1688,7 +1491,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="17" t="s">
         <v>38</v>
       </c>
@@ -1696,32 +1499,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64">
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D65" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="28"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
         <v>61</v>
@@ -1732,7 +1535,7 @@
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D67" s="17" t="s">
         <v>38</v>
       </c>
@@ -1740,86 +1543,86 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="19" t="s">
         <v>63</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="28"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="31"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-    </row>
-    <row r="73" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C75" s="2" t="s">
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="73" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C78" s="6" t="s">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C79" s="7">
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="6" t="n">
         <v>44153</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="7" t="n">
         <v>44166</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C81" s="1" t="s">
+    <row r="81" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +1643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11"/>
       <c r="B83" s="11" t="s">
         <v>13</v>
@@ -1853,7 +1656,7 @@
       <c r="F83" s="13"/>
       <c r="G83" s="14"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -1866,7 +1669,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="18"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -1874,12 +1677,12 @@
         <v>66</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F85" s="20"/>
       <c r="G85" s="21"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -1887,12 +1690,12 @@
         <v>67</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F86" s="20"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -1900,25 +1703,25 @@
         <v>68</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F87" s="23"/>
       <c r="G87" s="24"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13"/>
       <c r="B88" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
       <c r="G88" s="14"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -1931,7 +1734,7 @@
       <c r="F89" s="25"/>
       <c r="G89" s="18"/>
     </row>
-    <row r="90" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="15"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -1939,12 +1742,12 @@
         <v>54</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F90" s="20"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -1953,7 +1756,7 @@
       <c r="F91" s="20"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -1962,7 +1765,7 @@
       <c r="F92" s="20"/>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13"/>
       <c r="B93" s="13" t="s">
         <v>58</v>
@@ -1973,7 +1776,7 @@
       <c r="F93" s="13"/>
       <c r="G93" s="14"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -1986,7 +1789,7 @@
       <c r="F94" s="25"/>
       <c r="G94" s="18"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -1994,18 +1797,18 @@
         <v>57</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F95" s="20"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="20"/>
       <c r="G96" s="28"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="26"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -2014,7 +1817,7 @@
       <c r="F97" s="23"/>
       <c r="G97" s="24"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="12"/>
       <c r="B98" s="12" t="s">
         <v>22</v>
@@ -2025,7 +1828,7 @@
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -2038,7 +1841,7 @@
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -2046,12 +1849,12 @@
         <v>57</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F100" s="20"/>
       <c r="G100" s="28"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -2060,7 +1863,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="28"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="27"/>
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
@@ -2069,7 +1872,7 @@
       <c r="F102" s="23"/>
       <c r="G102" s="29"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="12"/>
       <c r="B103" s="12" t="s">
         <v>31</v>
@@ -2080,7 +1883,7 @@
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D104" s="17" t="s">
         <v>38</v>
       </c>
@@ -2088,28 +1891,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="20"/>
       <c r="G105" s="28"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" s="20"/>
       <c r="G106" s="28"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" s="20"/>
       <c r="G107" s="28"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="12"/>
       <c r="B108" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
@@ -2117,7 +1920,7 @@
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="17" t="s">
         <v>38</v>
       </c>
@@ -2125,81 +1928,81 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="110" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D110" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="28"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C111" s="33"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="32"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+    </row>
+    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="31"/>
       <c r="E112" s="31"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
-    </row>
-    <row r="113" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>85</v>
-      </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="4"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C115" s="2" t="s">
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+    </row>
+    <row r="113" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C118" s="6" t="s">
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C119" s="7">
+    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="6" t="n">
         <v>44167</v>
       </c>
-      <c r="F119" s="8">
+      <c r="F119" s="7" t="n">
         <v>44181</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C121" s="1" t="s">
+    <row r="121" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+    </row>
+    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
         <v>6</v>
       </c>
@@ -2220,7 +2023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11"/>
       <c r="B123" s="11" t="s">
         <v>74</v>
@@ -2233,71 +2036,71 @@
       <c r="F123" s="13"/>
       <c r="G123" s="14"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="15"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
       <c r="D124" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F124" s="32"/>
+      <c r="F124" s="16"/>
       <c r="G124" s="18"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="15"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
       <c r="D125" s="19" t="s">
         <v>75</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="15"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
       <c r="D126" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F126" s="20"/>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="15"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
       <c r="D127" s="22"/>
       <c r="E127" s="19"/>
       <c r="F127" s="23"/>
       <c r="G127" s="24"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="13"/>
       <c r="B128" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
       <c r="G128" s="14"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="15"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
       <c r="D129" s="17" t="s">
         <v>15</v>
       </c>
@@ -2307,54 +2110,58 @@
       <c r="F129" s="25"/>
       <c r="G129" s="18"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="15"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
       <c r="D130" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F130" s="20"/>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="15"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="F131" s="20"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="15"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="32"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
       <c r="D132" s="19"/>
       <c r="E132" s="19"/>
       <c r="F132" s="20"/>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13"/>
       <c r="B133" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="15"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
       <c r="D134" s="17" t="s">
         <v>15</v>
       </c>
@@ -2364,12 +2171,12 @@
       <c r="F134" s="25"/>
       <c r="G134" s="18"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="15"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
       <c r="D135" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E135" s="19" t="s">
         <v>18</v>
@@ -2377,17 +2184,17 @@
       <c r="F135" s="20"/>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D136" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F136" s="20"/>
       <c r="G136" s="28"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="26"/>
       <c r="B137" s="27"/>
       <c r="C137" s="27"/>
@@ -2396,85 +2203,85 @@
       <c r="F137" s="23"/>
       <c r="G137" s="24"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="12"/>
       <c r="B138" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="32"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="32"/>
+    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="16"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
       <c r="D139" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E139" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="32"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+    </row>
+    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="16"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
       <c r="D140" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F140" s="20"/>
       <c r="G140" s="28"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="32"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="32"/>
+    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
       <c r="D141" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F141" s="20"/>
       <c r="G141" s="28"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="27"/>
       <c r="B142" s="27"/>
       <c r="C142" s="27"/>
       <c r="D142" s="22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F142" s="23"/>
       <c r="G142" s="29"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="12"/>
       <c r="B143" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D144" s="17" t="s">
         <v>38</v>
       </c>
@@ -2482,37 +2289,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D145" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F145" s="20"/>
       <c r="G145" s="28"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="F146" s="20"/>
       <c r="G146" s="28"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D147" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F147" s="20"/>
       <c r="G147" s="28"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="12"/>
       <c r="B148" s="12" t="s">
         <v>36</v>
@@ -2523,7 +2330,7 @@
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D149" s="17" t="s">
         <v>38</v>
       </c>
@@ -2531,144 +2338,165 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D150" s="30"/>
       <c r="E150" s="19"/>
       <c r="F150" s="20"/>
       <c r="G150" s="28"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
       <c r="F151" s="20"/>
       <c r="G151" s="28"/>
     </row>
+    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C73:F73"/>
     <mergeCell ref="C75:F75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="C81:H81"/>
     <mergeCell ref="C113:F113"/>
     <mergeCell ref="C115:F115"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="C121:H121"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>73</v>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" customWidth="1"/>
-    <col min="4" max="4" width="42.7265625" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" customWidth="1"/>
-    <col min="6" max="6" width="26.26953125" customWidth="1"/>
-    <col min="7" max="7" width="39.08984375" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C3" s="2" t="s">
+    <row r="1" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C6" s="6" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C7" s="7"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="1" t="s">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -2689,7 +2517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -2698,7 +2526,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -2711,40 +2539,40 @@
       <c r="F12" s="16"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="22"/>
       <c r="E15" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -2753,7 +2581,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2766,40 +2594,40 @@
       <c r="F17" s="25"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2808,7 +2636,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -2821,37 +2649,37 @@
       <c r="F22" s="25"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="19"/>
       <c r="E24" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2860,7 +2688,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -2873,40 +2701,40 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2915,7 +2743,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="17" t="s">
         <v>38</v>
       </c>
@@ -2923,61 +2751,61 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="19"/>
       <c r="E33" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="28"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="19"/>
       <c r="E34" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="28"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="19"/>
       <c r="E35" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="28"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-    </row>
-    <row r="58" ht="28.4" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="58" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:F1"/>
@@ -2985,9 +2813,10 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:H9"/>
   </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
